--- a/results/LGBMClassifier-estimator_df.xlsx
+++ b/results/LGBMClassifier-estimator_df.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Best Score</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Search Type</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Seed</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Train F1 Weighted </t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Test F1 Weighted </t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Y Val</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Y Pred</t>
         </is>
@@ -476,40 +486,73 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('StandardScaler',
+                                                  StandardScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'D...
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f9c6c522640&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f66e3c9b910&gt;),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                colsample_bytree=0.5, early_stopping_rounds=5,
-                                max_bin=50, max_depth=7, min_child_samples=1,
-                                min_data_in_leaf=30, num_iterations=300,
-                                num_leaves=2, random_state=42,
-                                subsample=0.5))])</t>
+                                colsample_bytree=0.4, early_stopping_rounds=1,
+                                learning_rate=0.05, max_bin=75, max_depth=7,
+                                min_child_samples=1, min_data_in_leaf=30,
+                                num_iterations=400, num_leaves=2,
+                                random_state=42, subsample=0.5))])</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f938c6410a0&gt;, 'scaler': StandardScaler(), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 300, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 1, 'model__max_depth': 7, 'model__max_bin': 50, 'model__learning_rate': 0.1, 'model__early_stopping_rounds': 5, 'model__colsample_bytree': 0.5, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f66e190b3d0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('StandardScaler', StandardScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 400, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 1, 'model__max_depth': 7, 'model__max_bin': 75, 'model__learning_rate': 0.05, 'model__early_stopping_rounds': 1, 'model__colsample_bytree': 0.4, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D2" t="n">
+        <v>0.5739919441546174</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>42</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.764891458713735</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.705686630369026</v>
-      </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>0.7013753438359589</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.4166666666666667</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>[1 0 1 0 0 1 1 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 0 0]</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 0 0 1 1 1 1 1 1 1 0 1 0 1 0 1 0 1 0 1 0]</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 1 0 1 0 0 1 1 1 0 1 1 0 1 0 1 0 0 0 1 1]</t>
         </is>
       </c>
     </row>
@@ -519,169 +562,304 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f938c641f10&gt;),
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('StandardScaler',
+                                                  StandardScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'D...
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
+                ('selector', None),
                 ('model',
                  LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                colsample_bytree=0.5, early_stopping_rounds=1,
+                                colsample_bytree=0.4, early_stopping_rounds=3,
+                                learning_rate=0.05, max_bin=75, max_depth=7,
+                                min_child_samples=5, min_data_in_leaf=30,
+                                num_iterations=400, num_leaves=2,
+                                random_state=42, subsample=0.5))])</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('StandardScaler', StandardScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 400, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 5, 'model__max_depth': 7, 'model__max_bin': 75, 'model__learning_rate': 0.05, 'model__early_stopping_rounds': 3, 'model__colsample_bytree': 0.4, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.566147988832334</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>69</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.7435179549604384</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4044289044289044</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>[0 0 1 1 0 1 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('StandardScaler',
+                                                  StandardScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'D...
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7f66deef1610&gt;),
+                ('model',
+                 LGBMClassifier(boosting_type='dart', class_weight='balanced',
+                                colsample_bytree=0.5, early_stopping_rounds=7,
+                                learning_rate=0.05, max_bin=75, max_depth=7,
+                                min_child_samples=7, min_data_in_leaf=30,
+                                num_iterations=300, num_leaves=2,
+                                random_state=42, subsample=0.5))])</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f66e190b3d0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('StandardScaler', StandardScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 300, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 7, 'model__max_depth': 7, 'model__max_bin': 75, 'model__learning_rate': 0.05, 'model__early_stopping_rounds': 7, 'model__colsample_bytree': 0.5, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5229197417126479</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>23</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6478803608948214</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>[0 0 0 0 0 1 1 0 1 1 1 0 0 1 1 1 1 1 0 0 0 0 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('StandardScaler',
+                                                  StandardScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'D...
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
+                ('selector', None),
+                ('model',
+                 LGBMClassifier(boosting_type='dart', class_weight='balanced',
+                                colsample_bytree=0.5, early_stopping_rounds=3,
+                                learning_rate=0.05, max_bin=50, max_depth=7,
+                                min_child_samples=7, min_data_in_leaf=30,
+                                num_iterations=300, num_leaves=2,
+                                random_state=42, subsample=0.5))])</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('StandardScaler', StandardScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 300, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 7, 'model__max_depth': 7, 'model__max_bin': 50, 'model__learning_rate': 0.05, 'model__early_stopping_rounds': 3, 'model__colsample_bytree': 0.5, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5915617853079154</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>99</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.733242697647592</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>[0 0 1 0 0 1 0 1 0 1 0 1 1 1 1 1 0 1 1 1 1 1 0 0]</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('StandardScaler',
+                                                  StandardScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'D...
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
+                ('selector', None),
+                ('model',
+                 LGBMClassifier(boosting_type='dart', class_weight='balanced',
+                                colsample_bytree=0.5, early_stopping_rounds=3,
                                 learning_rate=0.05, max_bin=75, max_depth=7,
                                 min_child_samples=1, min_data_in_leaf=30,
                                 num_iterations=300, num_leaves=2,
                                 random_state=42, subsample=0.5))])</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9d10f4b820&gt;, 'scaler': StandardScaler(), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 300, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 1, 'model__max_depth': 7, 'model__max_bin': 75, 'model__learning_rate': 0.05, 'model__early_stopping_rounds': 1, 'model__colsample_bytree': 0.5, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>69</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.7435179549604384</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.4895104895104894</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>[0 0 1 0 0 1 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 0 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f9d10efa730&gt;),
-                ('model',
-                 LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                colsample_bytree=0.4, early_stopping_rounds=1,
-                                max_bin=75, max_depth=7, min_child_samples=7,
-                                min_data_in_leaf=30, num_iterations=300,
-                                num_leaves=2, random_state=42,
-                                subsample=0.5))])</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f936c26cdc0&gt;, 'scaler': StandardScaler(), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 300, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 7, 'model__max_depth': 7, 'model__max_bin': 75, 'model__learning_rate': 0.1, 'model__early_stopping_rounds': 1, 'model__colsample_bytree': 0.4, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>23</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.7121122738459804</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.5862470862470862</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 0 1 1 1 1 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f938c641a00&gt;),
-                ('model',
-                 LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                colsample_bytree=0.4, early_stopping_rounds=3,
-                                learning_rate=0.05, max_bin=50, max_depth=7,
-                                min_child_samples=7, min_data_in_leaf=25,
-                                num_iterations=300, num_leaves=2,
-                                random_state=42, subsample=0.5))])</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f936c26c8b0&gt;, 'scaler': StandardScaler(), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 300, 'model__min_data_in_leaf': 25, 'model__min_child_samples': 7, 'model__max_depth': 7, 'model__max_bin': 50, 'model__learning_rate': 0.05, 'model__early_stopping_rounds': 3, 'model__colsample_bytree': 0.4, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>99</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.7544328762966757</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.5034965034965034</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>[0 0 1 1 0 1 0 0 0 1 0 1 1 0 1 1 0 0 1 1 0 1 0 1]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', StandardScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f936c26c490&gt;),
-                ('model',
-                 LGBMClassifier(boosting_type='dart', class_weight='balanced',
-                                colsample_bytree=0.4, early_stopping_rounds=1,
-                                learning_rate=0.05, max_bin=75, max_depth=7,
-                                min_child_samples=5, min_data_in_leaf=30,
-                                num_iterations=300, num_leaves=2,
-                                random_state=42, subsample=0.5))])</t>
-        </is>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9d116fb820&gt;, 'scaler': StandardScaler(), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 300, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 5, 'model__max_depth': 7, 'model__max_bin': 75, 'model__learning_rate': 0.05, 'model__early_stopping_rounds': 1, 'model__colsample_bytree': 0.4, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
+          <t>{'selector': None, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('StandardScaler', StandardScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__subsample': 0.5, 'model__num_leaves': 2, 'model__num_iterations': 300, 'model__min_data_in_leaf': 30, 'model__min_child_samples': 1, 'model__max_depth': 7, 'model__max_bin': 75, 'model__learning_rate': 0.05, 'model__early_stopping_rounds': 3, 'model__colsample_bytree': 0.5, 'model__class_weight': 'balanced', 'model__boosting_type': 'dart'}</t>
         </is>
       </c>
       <c r="D6" t="n">
+        <v>0.5730714040001966</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Random</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
         <v>89</v>
       </c>
-      <c r="E6" t="n">
-        <v>0.7642833072940601</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.5440579710144928</v>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" t="n">
+        <v>0.7547131840861725</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4611594202898551</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[1 0 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 0 0 1 0]</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>[1 0 0 0 0 0 0 0 1 0 1 1 1 1 1 1 0 0 0 1 0 1 0 1]</t>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>[0 0 1 1 0 0 0 0 1 0 1 0 1 1 1 1 0 0 0 1 0 1 0 1]</t>
         </is>
       </c>
     </row>
